--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -30,6 +31,9 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
@@ -48,76 +52,82 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2017-03-02 12:43:05</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Lastest Handoff Name</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Latest Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-03-02 09:18:44</t>
   </si>
   <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Lastest Handoff Name</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Latest Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -201,15 +211,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Source Path"/>
+    <tableColumn id="5" name="Priority"/>
+    <tableColumn id="6" name="Content Duplicate"/>
+    <tableColumn id="7" name="Latest Handoff File"/>
+    <tableColumn id="8" name="Latest Handoff Datetime"/>
+    <tableColumn id="9" name="Lastest Handoff Name"/>
+    <tableColumn id="10" name="Latest Target File"/>
+    <tableColumn id="11" name="Latest Handback File"/>
+    <tableColumn id="12" name="Latest Handback DateTime"/>
+    <tableColumn id="13" name="Latest Handback Name"/>
+    <tableColumn id="14" name="Reference Tokens"/>
+    <tableColumn id="15" name="To be localized"/>
+    <tableColumn id="16" name="Dependency From"/>
+    <tableColumn id="17" name="Has metadata"/>
+    <tableColumn id="18" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
     <tableColumn id="5" name="zh-cn"/>
-    <tableColumn id="6" name="Latest HO Xliff Generate Date"/>
+    <tableColumn id="6" name="de-de"/>
+    <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -217,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -228,7 +266,8 @@
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="29.5073743547712" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -250,25 +289,31 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -312,114 +357,265 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
+    <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
+    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
+    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
+    <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
+    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
+    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="0" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-03-02 12:43:05</t>
@@ -265,8 +265,8 @@
     <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
+    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -337,7 +337,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -488,7 +488,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-03-02 12:43:05</t>
@@ -121,13 +121,16 @@
     <t>2017-03-02 09:18:44</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-03-03 02:34:41</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-03 02:34:50</t>
   </si>
 </sst>
 </file>
@@ -265,8 +268,8 @@
     <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
-    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -337,15 +340,15 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -439,11 +442,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>35</v>
@@ -470,6 +473,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -488,15 +492,15 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -590,14 +594,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -621,6 +625,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -121,7 +121,7 @@
     <t>2017-03-02 09:18:44</t>
   </si>
   <si>
-    <t>2017-03-03 02:34:41</t>
+    <t>2017-03-03 02:45:12</t>
   </si>
   <si>
     <t>True</t>
@@ -130,7 +130,7 @@
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-03-03 02:34:50</t>
+    <t>2017-03-03 02:45:22</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,18 @@
     <t>2017-03-02 12:43:05</t>
   </si>
   <si>
+    <t>Test`1.md</t>
+  </si>
+  <si>
+    <t>test\Test`1.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-11-03 03:07:08</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -127,10 +139,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-11-03 03:07:02</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
     <t>2017-03-03 02:45:22</t>
+  </si>
+  <si>
+    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -187,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -214,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,7 +282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +343,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="test\Test`1.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -425,19 +473,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -446,27 +494,83 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -474,6 +578,7 @@
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +589,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +617,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -577,16 +682,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -598,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -610,15 +715,71 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -626,6 +787,7 @@
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>test\Test`1.md</t>
   </si>
   <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>2017-11-03 03:07:02</t>
+  </si>
+  <si>
+    <t>LocaleLowerCaseTest_HT_OL#Test#20171102T213255</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -360,10 +366,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -394,7 +400,7 @@
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
-    <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
@@ -408,58 +414,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -473,19 +479,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -494,25 +500,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -529,46 +535,46 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -617,58 +623,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -682,16 +688,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -703,10 +709,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -715,13 +721,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -735,22 +741,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -762,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -771,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -6,8 +6,8 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
-    <sheet name="de-de" sheetId="3" r:id="rId4"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -28,12 +28,12 @@
     <t>Publish URL</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>zh-cn</t>
   </si>
   <si>
-    <t>de-de</t>
-  </si>
-  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
@@ -61,13 +61,13 @@
     <t>test\Test`1.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>In Translation</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-11-03 03:07:08</t>
+    <t>2017-11-03 08:49:12</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,6 +130,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-03 02:45:22</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
   </si>
   <si>
@@ -139,9 +154,6 @@
     <t>2017-03-03 02:45:12</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
   </si>
   <si>
@@ -149,18 +161,6 @@
   </si>
   <si>
     <t>LocaleLowerCaseTest_HT_OL#Test#20171102T213255</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-03 02:45:22</t>
-  </si>
-  <si>
-    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
   <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
   <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
@@ -278,8 +278,8 @@
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
-    <tableColumn id="5" name="zh-cn"/>
-    <tableColumn id="6" name="de-de"/>
+    <tableColumn id="5" name="de-de"/>
+    <tableColumn id="6" name="zh-cn"/>
     <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -385,6 +385,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
+    <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
+    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
+    <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
+    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
+    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:R3"/>
   <sheetViews>
@@ -488,10 +697,10 @@
         <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -500,19 +709,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -532,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>36</v>
@@ -544,23 +753,23 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -568,216 +777,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
-    <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
-    <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
-    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -61,9 +61,6 @@
     <t>test\Test`1.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
+  </si>
+  <si>
+    <t>LocaleLowerCaseTest_HT_OL#Test1#20171103T035934</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -366,10 +366,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -400,7 +400,7 @@
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
-    <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
@@ -414,58 +414,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -479,16 +479,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -500,25 +500,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -535,22 +535,22 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -568,13 +568,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -623,58 +623,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -688,13 +688,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>43</v>
@@ -721,13 +721,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -741,16 +741,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>46</v>
@@ -777,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -6,15 +6,15 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
-    <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
+    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Publish URL</t>
   </si>
   <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>de-de</t>
   </si>
   <si>
-    <t>zh-cn</t>
-  </si>
-  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
@@ -61,10 +61,16 @@
     <t>test\Test`1.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-11-03 08:49:12</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-11-04 15:13:04</t>
+  </si>
+  <si>
+    <t>Test`2.md</t>
+  </si>
+  <si>
+    <t>test\Test`2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -127,40 +133,46 @@
     <t>False</t>
   </si>
   <si>
+    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-02 09:18:44</t>
+  </si>
+  <si>
+    <t>2017-03-03 02:45:12</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-11-04 15:12:57</t>
+  </si>
+  <si>
+    <t>LocaleLowerCaseTest_HT_OL#Test#20171102T213255</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
     <t>2017-03-03 02:45:22</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest_HT_OL#Test1#20171103T035934</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-02 09:18:44</t>
-  </si>
-  <si>
-    <t>2017-03-03 02:45:12</t>
-  </si>
-  <si>
-    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-11-03 03:07:02</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test#20171102T213255</t>
+    <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -217,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,15 +283,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
-    <tableColumn id="5" name="de-de"/>
-    <tableColumn id="6" name="zh-cn"/>
+    <tableColumn id="5" name="zh-cn"/>
+    <tableColumn id="6" name="de-de"/>
     <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -288,7 +300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -372,10 +384,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="B3" display="test\Test`1.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="test\Test`2.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -386,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,58 +450,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -479,19 +515,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -500,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -512,13 +548,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -535,22 +571,22 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -559,24 +595,80 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -585,6 +677,7 @@
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
     <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="Test`2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -595,7 +688,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -623,58 +716,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -688,19 +781,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -709,10 +802,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -721,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -744,48 +837,104 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -794,6 +943,7 @@
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
     <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="Test`2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -64,15 +64,18 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2017-11-04 16:03:26</t>
+  </si>
+  <si>
+    <t>Test`2.md</t>
+  </si>
+  <si>
+    <t>test\Test`2.md</t>
+  </si>
+  <si>
     <t>2017-11-04 15:13:04</t>
   </si>
   <si>
-    <t>Test`2.md</t>
-  </si>
-  <si>
-    <t>test\Test`2.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -148,16 +151,19 @@
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-11-04 16:03:20</t>
+  </si>
+  <si>
+    <t>LocaleLowerCaseTest_HT_OL#Test#20171102T213255</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-11-04 15:12:57</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test#20171102T213255</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
@@ -404,7 +410,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -450,58 +456,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -515,19 +521,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -536,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -548,13 +554,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -571,46 +577,46 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -627,32 +633,32 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -660,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -716,58 +722,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -781,16 +787,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -802,10 +808,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -814,13 +820,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -837,22 +843,22 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -861,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -870,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -893,19 +899,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -917,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -926,13 +932,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -61,7 +61,7 @@
     <t>test\Test`1.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-11-04 16:03:26</t>
@@ -154,7 +154,7 @@
     <t>2017-11-04 16:03:20</t>
   </si>
   <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test#20171102T213255</t>
+    <t>LocaleLowerCaseTest_HT_OL#Test1#20171104T090037</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test1#20171103T035934</t>
   </si>
   <si>
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.de-de.xlf</t>
@@ -648,7 +645,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -858,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -908,13 +905,13 @@
         <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-03-02 12:43:05</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-11-06 02:56:39</t>
   </si>
   <si>
     <t>Test`1.md</t>
@@ -61,21 +61,12 @@
     <t>test\Test`1.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-11-04 16:03:26</t>
-  </si>
-  <si>
     <t>Test`2.md</t>
   </si>
   <si>
     <t>test\Test`2.md</t>
   </si>
   <si>
-    <t>2017-11-04 15:13:04</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -139,7 +130,7 @@
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-03-02 09:18:44</t>
+    <t>2017-11-06 02:56:33</t>
   </si>
   <si>
     <t>2017-03-03 02:45:12</t>
@@ -151,9 +142,6 @@
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-11-04 16:03:20</t>
-  </si>
-  <si>
     <t>LocaleLowerCaseTest_HT_OL#Test1#20171104T090037</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
   </si>
   <si>
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-11-04 15:12:57</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
@@ -313,8 +298,8 @@
     <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -378,21 +363,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -401,13 +386,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -433,7 +418,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -453,58 +438,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -518,19 +503,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -539,25 +524,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -571,25 +556,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -598,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -607,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -621,31 +606,31 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -654,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -663,13 +648,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -699,7 +684,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -719,58 +704,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -784,16 +769,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -805,10 +790,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -817,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -837,25 +822,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -864,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -873,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -887,31 +872,31 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -920,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -929,13 +914,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-11-06 02:56:39</t>
+    <t>2017-11-06 03:16:56</t>
   </si>
   <si>
     <t>Test`1.md</t>
@@ -130,7 +130,7 @@
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-11-06 02:56:33</t>
+    <t>2017-11-06 03:16:53</t>
   </si>
   <si>
     <t>2017-03-03 02:45:12</t>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -37,30 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>Test`1.md</t>
+  </si>
+  <si>
+    <t>test\Test`1.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-11-06 03:16:56</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.md</t>
   </si>
   <si>
     <t>test\LocaleLowerCaseTest.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-11-06 03:16:56</t>
-  </si>
-  <si>
-    <t>Test`1.md</t>
-  </si>
-  <si>
-    <t>test\Test`1.md</t>
-  </si>
-  <si>
     <t>Test`2.md</t>
   </si>
   <si>
@@ -127,28 +130,31 @@
     <t>False</t>
   </si>
   <si>
+    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-11-06 03:16:53</t>
+  </si>
+  <si>
+    <t>LocaleLowerCaseTest_HT_OL#Test1#20171104T090037</t>
+  </si>
+  <si>
+    <t>2017-11-06 04:37:51</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-11-06 03:16:53</t>
-  </si>
-  <si>
     <t>2017-03-03 02:45:12</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test1#20171104T090037</t>
+    <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
@@ -298,7 +304,7 @@
     <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
@@ -343,18 +349,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -363,21 +369,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -386,19 +392,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="test\Test`1.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="test\Test`1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="test\LocaleLowerCaseTest.md" r:id="rId3"/>
     <hyperlink ref="B4" display="test\Test`2.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -418,7 +424,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -438,58 +444,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -503,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -536,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -550,55 +556,55 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -606,55 +612,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -662,10 +668,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="Test`2.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="Test`1.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="Test`1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="LocaleLowerCaseTest.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="LocaleLowerCaseTest.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="Test`2.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -704,96 +711,96 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -802,13 +809,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -816,55 +823,55 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -872,55 +879,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -37,33 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>LocaleLowerCaseTest.md</t>
+  </si>
+  <si>
+    <t>test\LocaleLowerCaseTest.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-11-06 04:58:57</t>
+  </si>
+  <si>
     <t>Test`1.md</t>
   </si>
   <si>
     <t>test\Test`1.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-11-06 03:16:56</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest.md</t>
-  </si>
-  <si>
-    <t>test\LocaleLowerCaseTest.md</t>
-  </si>
-  <si>
     <t>Test`2.md</t>
   </si>
   <si>
@@ -130,25 +127,25 @@
     <t>False</t>
   </si>
   <si>
+    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-11-06 04:58:52</t>
+  </si>
+  <si>
+    <t>2017-03-03 02:45:12</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-11-06 03:16:53</t>
-  </si>
-  <si>
     <t>LocaleLowerCaseTest_HT_OL#Test1#20171104T090037</t>
   </si>
   <si>
     <t>2017-11-06 04:37:51</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-03 02:45:12</t>
   </si>
   <si>
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
@@ -304,7 +301,7 @@
     <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
     <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
@@ -349,18 +346,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -369,21 +366,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -392,19 +389,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="test\Test`1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="test\LocaleLowerCaseTest.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="test\Test`1.md" r:id="rId3"/>
     <hyperlink ref="B4" display="test\Test`2.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -424,7 +421,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -444,58 +441,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -509,31 +506,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -542,13 +539,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -556,41 +553,41 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -598,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -612,55 +609,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -668,10 +665,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="Test`1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="Test`1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="LocaleLowerCaseTest.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="LocaleLowerCaseTest.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="Test`1.md" r:id="rId5"/>
     <hyperlink ref="A4" display="Test`2.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -711,97 +708,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -809,13 +806,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -823,55 +820,55 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -879,55 +876,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,15 @@
     <t>2017-11-06 04:58:57</t>
   </si>
   <si>
+    <t>Test11092017.md</t>
+  </si>
+  <si>
+    <t>test\Test11092017.md</t>
+  </si>
+  <si>
+    <t>2017-11-09 09:13:03</t>
+  </si>
+  <si>
     <t>Test`1.md</t>
   </si>
   <si>
@@ -139,6 +148,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>Test11092017.7d6ca483899ea880c755aa9baa221f2546ff0ef5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-11-09 09:12:56</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
   </si>
   <si>
@@ -151,13 +169,13 @@
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
     <t>2017-03-03 02:45:22</t>
+  </si>
+  <si>
+    <t>Test11092017.7d6ca483899ea880c755aa9baa221f2546ff0ef5.de-de.xlf</t>
   </si>
   <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
@@ -220,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -247,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -291,7 +309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -372,15 +390,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -395,14 +413,38 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="test\Test`1.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="test\Test`2.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="test\Test11092017.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="test\Test`1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="test\Test`2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -413,7 +455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,58 +483,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -506,19 +548,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -527,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -539,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -562,46 +604,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -609,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -618,48 +660,104 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -667,9 +765,10 @@
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="Test`1.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="Test`2.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="Test11092017.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="Test`1.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="Test`1.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="Test`2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -680,7 +779,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -708,58 +807,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -773,16 +872,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -794,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -806,13 +905,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -829,22 +928,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -853,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -862,13 +961,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -876,7 +975,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -885,22 +984,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -909,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -918,15 +1017,71 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -934,8 +1089,9 @@
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
     <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="Test`1.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="Test`2.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="Test11092017.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="Test`1.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="Test`2.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -52,24 +52,27 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2017-11-17 11:57:20</t>
+  </si>
+  <si>
+    <t>Test11092017.md</t>
+  </si>
+  <si>
+    <t>test\Test11092017.md</t>
+  </si>
+  <si>
+    <t>2017-11-09 09:13:03</t>
+  </si>
+  <si>
+    <t>Test`1.md</t>
+  </si>
+  <si>
+    <t>test\Test`1.md</t>
+  </si>
+  <si>
     <t>2017-11-06 04:58:57</t>
   </si>
   <si>
-    <t>Test11092017.md</t>
-  </si>
-  <si>
-    <t>test\Test11092017.md</t>
-  </si>
-  <si>
-    <t>2017-11-09 09:13:03</t>
-  </si>
-  <si>
-    <t>Test`1.md</t>
-  </si>
-  <si>
-    <t>test\Test`1.md</t>
-  </si>
-  <si>
     <t>Test`2.md</t>
   </si>
   <si>
@@ -139,25 +142,31 @@
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-11-17 11:57:14</t>
+  </si>
+  <si>
+    <t>2017-03-03 02:45:12</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/LocaleLowerCaseTest/blob/43005fad50282e1d7eb2b234e05d7f949ed92bcf/test/LocaleLowerCaseTest.md, latest: https://github.com/OpenLocalizationTestOrg/LocaleLowerCaseTest/blob/497ef533af1ce60eea206a466039a56b861e7cf2/test/LocaleLowerCaseTest.md.</t>
+  </si>
+  <si>
+    <t>Test11092017.7d6ca483899ea880c755aa9baa221f2546ff0ef5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-11-09 09:12:56</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-11-06 04:58:52</t>
-  </si>
-  <si>
-    <t>2017-03-03 02:45:12</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Test11092017.7d6ca483899ea880c755aa9baa221f2546ff0ef5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-11-09 09:12:56</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest_HT_OL#Test1#20171104T090037</t>
@@ -413,15 +422,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -478,63 +487,63 @@
     <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
     <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -548,19 +557,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -569,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -581,16 +590,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -604,46 +613,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -660,31 +669,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -693,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -707,7 +716,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -716,32 +725,32 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -749,13 +758,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -802,63 +811,63 @@
     <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
     <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -872,16 +881,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -893,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -905,16 +914,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -928,16 +937,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -952,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -961,13 +970,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -984,32 +993,32 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1017,13 +1026,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1031,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1040,32 +1049,32 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1073,13 +1082,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-11-17 11:57:20</t>
@@ -145,6 +145,9 @@
     <t>2017-11-17 11:57:14</t>
   </si>
   <si>
+    <t>LocaleLowerCaseTest_HT_OL#Test1#20171117T080113</t>
+  </si>
+  <si>
     <t>2017-03-03 02:45:12</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
   </si>
   <si>
     <t>2017-11-06 04:58:52</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test1#20171104T090037</t>
   </si>
   <si>
     <t>2017-11-06 04:37:51</t>
@@ -328,8 +328,8 @@
     <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
+    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,7 +472,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -572,7 +572,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -581,7 +581,7 @@
         <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -599,7 +599,7 @@
         <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -622,13 +622,13 @@
         <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -678,19 +678,19 @@
         <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>52</v>
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
@@ -749,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -796,7 +796,7 @@
   <cols>
     <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -914,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -923,7 +923,7 @@
         <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1008,7 +1008,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -1017,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -70,7 +70,7 @@
     <t>test\Test`1.md</t>
   </si>
   <si>
-    <t>2017-11-06 04:58:57</t>
+    <t>2018-03-26 02:57:12</t>
   </si>
   <si>
     <t>Test`2.md</t>
@@ -79,6 +79,15 @@
     <t>test\Test`2.md</t>
   </si>
   <si>
+    <t>SunnyTesting.md</t>
+  </si>
+  <si>
+    <t>test\SunnyTesting.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -178,6 +187,12 @@
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
   </si>
   <si>
+    <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2018-03-26 02:53:13</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
@@ -190,7 +205,13 @@
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
   </si>
   <si>
+    <t>LocaleLowerCaseTest_HT_OL#Test1#20171103T035934</t>
+  </si>
+  <si>
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -247,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -301,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -318,19 +339,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
-    <col min="2" max="2" width="27.7842538016183" customWidth="1"/>
+    <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
+    <col min="2" max="2" width="27.7842540740967" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
-    <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
-    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
-    <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
+    <col min="4" max="4" width="13.963942527771" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -446,6 +467,29 @@
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -454,6 +498,7 @@
     <hyperlink ref="B3" display="test\Test11092017.md" r:id="rId3"/>
     <hyperlink ref="B4" display="test\Test`1.md" r:id="rId4"/>
     <hyperlink ref="B5" display="test\Test`2.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="test\SunnyTesting.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -464,86 +509,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="4" max="4" width="14.157301902771" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
+    <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
+    <col min="10" max="10" width="23.5855922698975" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
-    <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
-    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
+    <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -557,31 +602,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -590,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -613,46 +658,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -669,31 +714,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -702,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -725,48 +770,104 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="0" t="s">
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -778,6 +879,7 @@
     <hyperlink ref="A4" display="Test`1.md" r:id="rId5"/>
     <hyperlink ref="J4" display="Test`1.md" r:id="rId6"/>
     <hyperlink ref="A5" display="Test`2.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="SunnyTesting.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -788,86 +890,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5855930873326" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="4" max="4" width="14.157301902771" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
+    <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="23.5855930873326" customWidth="1"/>
+    <col min="10" max="10" width="23.5855922698975" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
-    <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
-    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
+    <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -881,31 +983,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -914,16 +1016,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -937,22 +1039,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -961,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -970,13 +1072,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -993,22 +1095,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -1017,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1026,13 +1128,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1049,22 +1151,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
@@ -1073,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1082,15 +1184,71 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1101,6 +1259,7 @@
     <hyperlink ref="A3" display="Test11092017.md" r:id="rId4"/>
     <hyperlink ref="A4" display="Test`1.md" r:id="rId5"/>
     <hyperlink ref="A5" display="Test`2.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="SunnyTesting.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -88,6 +88,15 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>Task1253037Test.md</t>
+  </si>
+  <si>
+    <t>test\Task1253037Test.md</t>
+  </si>
+  <si>
+    <t>2018-05-08 05:17:31</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -193,6 +202,12 @@
     <t>2018-03-26 02:53:13</t>
   </si>
   <si>
+    <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2018-05-08 05:17:23</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
@@ -212,6 +227,9 @@
   </si>
   <si>
     <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -268,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +313,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -322,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -339,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,6 +510,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
@@ -499,6 +540,7 @@
     <hyperlink ref="B4" display="test\Test`1.md" r:id="rId4"/>
     <hyperlink ref="B5" display="test\Test`2.md" r:id="rId5"/>
     <hyperlink ref="B6" display="test\SunnyTesting.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="test\Task1253037Test.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -509,7 +551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -537,58 +579,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -602,31 +644,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -635,16 +677,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -658,46 +700,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -714,31 +756,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -747,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -770,22 +812,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
@@ -794,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -803,13 +845,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -826,19 +868,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -850,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -859,15 +901,71 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -880,6 +978,7 @@
     <hyperlink ref="J4" display="Test`1.md" r:id="rId6"/>
     <hyperlink ref="A5" display="Test`2.md" r:id="rId7"/>
     <hyperlink ref="A6" display="SunnyTesting.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="Task1253037Test.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -890,7 +989,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -918,58 +1017,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -983,31 +1082,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1016,16 +1115,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1039,22 +1138,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -1063,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1072,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1095,22 +1194,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -1119,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1128,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1151,22 +1250,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
@@ -1175,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1184,13 +1283,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1207,16 +1306,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -1231,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1240,15 +1339,71 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1260,6 +1415,7 @@
     <hyperlink ref="A4" display="Test`1.md" r:id="rId5"/>
     <hyperlink ref="A5" display="Test`2.md" r:id="rId6"/>
     <hyperlink ref="A6" display="SunnyTesting.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="Task1253037Test.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -94,7 +94,7 @@
     <t>test\Task1253037Test.md</t>
   </si>
   <si>
-    <t>2018-05-08 05:17:31</t>
+    <t>2018-05-08 08:36:17</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -205,7 +205,7 @@
     <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2018-05-08 05:17:23</t>
+    <t>2018-05-08 08:36:09</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>test\Task1253037Test.md</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>2018-05-08 08:36:17</t>
   </si>
   <si>
@@ -208,6 +211,12 @@
     <t>2018-05-08 08:36:09</t>
   </si>
   <si>
+    <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2018-05-08 11:57:31</t>
+  </si>
+  <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
   </si>
   <si>
@@ -227,9 +236,6 @@
   </si>
   <si>
     <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,10 +533,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -579,58 +585,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -644,31 +650,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -677,16 +683,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -700,22 +706,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>10</v>
@@ -724,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -733,13 +739,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -756,31 +762,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -789,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -812,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
@@ -836,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -845,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -868,19 +874,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -892,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -901,13 +907,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -924,19 +930,19 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -948,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -957,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -997,7 +1003,7 @@
   <cols>
     <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1017,96 +1023,96 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1115,21 +1121,21 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1138,31 +1144,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1171,21 +1177,21 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1194,22 +1200,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
@@ -1218,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1227,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1250,22 +1256,22 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>10</v>
@@ -1274,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1283,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1297,31 +1303,31 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>10</v>
@@ -1330,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1339,13 +1345,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1353,7 +1359,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1362,19 +1368,19 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1386,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1395,13 +1401,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1409,13 +1415,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="Test11092017.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="Test`1.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="Test`2.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="SunnyTesting.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="Task1253037Test.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="Task1253037Test.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="Task1253037Test.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="LocaleLowerCaseTest.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="LocaleLowerCaseTest.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="Test11092017.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="Test`1.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="Test`2.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="SunnyTesting.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -214,7 +214,7 @@
     <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.de-de.xlf</t>
   </si>
   <si>
-    <t>2018-05-08 11:57:31</t>
+    <t>2018-05-10 14:00:44</t>
   </si>
   <si>
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/LocaleLowerCaseTest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,22 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-11-17 11:57:20</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2018-08-08 13:02:45</t>
+  </si>
+  <si>
+    <t>SunnyTesting.md</t>
+  </si>
+  <si>
+    <t>test\SunnyTesting.md</t>
+  </si>
+  <si>
+    <t>Task1253037Test.md</t>
+  </si>
+  <si>
+    <t>test\Task1253037Test.md</t>
   </si>
   <si>
     <t>Test11092017.md</t>
@@ -61,45 +73,18 @@
     <t>test\Test11092017.md</t>
   </si>
   <si>
-    <t>2017-11-09 09:13:03</t>
-  </si>
-  <si>
     <t>Test`1.md</t>
   </si>
   <si>
     <t>test\Test`1.md</t>
   </si>
   <si>
-    <t>2018-03-26 02:57:12</t>
-  </si>
-  <si>
     <t>Test`2.md</t>
   </si>
   <si>
     <t>test\Test`2.md</t>
   </si>
   <si>
-    <t>SunnyTesting.md</t>
-  </si>
-  <si>
-    <t>test\SunnyTesting.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>Task1253037Test.md</t>
-  </si>
-  <si>
-    <t>test\Task1253037Test.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2018-05-08 08:36:17</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -163,79 +148,46 @@
     <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-11-17 11:57:14</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test1#20171117T080113</t>
-  </si>
-  <si>
-    <t>2017-03-03 02:45:12</t>
+    <t>2018-08-08 13:02:39</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/LocaleLowerCaseTest/blob/43005fad50282e1d7eb2b234e05d7f949ed92bcf/test/LocaleLowerCaseTest.md, latest: https://github.com/OpenLocalizationTestOrg/LocaleLowerCaseTest/blob/497ef533af1ce60eea206a466039a56b861e7cf2/test/LocaleLowerCaseTest.md.</t>
+    <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.zh-cn.xlf</t>
   </si>
   <si>
     <t>Test11092017.7d6ca483899ea880c755aa9baa221f2546ff0ef5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-11-09 09:12:56</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-11-06 04:58:52</t>
-  </si>
-  <si>
-    <t>2017-11-06 04:37:51</t>
-  </si>
-  <si>
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2018-03-26 02:53:13</t>
-  </si>
-  <si>
-    <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2018-05-08 08:36:09</t>
+    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.de-de.xlf</t>
   </si>
   <si>
     <t>Task1253037Test.c7d36845f7f564386ec428c01a3904b397dddbd6.de-de.xlf</t>
   </si>
   <si>
-    <t>2018-05-10 14:00:44</t>
-  </si>
-  <si>
-    <t>LocaleLowerCaseTest.a47dea4a0d9bca8cf007ef5d5443046c4dff2a81.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-03 02:45:22</t>
-  </si>
-  <si>
     <t>Test11092017.7d6ca483899ea880c755aa9baa221f2546ff0ef5.de-de.xlf</t>
   </si>
   <si>
     <t>Test`1.2566724fb77af3b0efacc67e473603dec92ccf17.de-de.xlf</t>
   </si>
   <si>
-    <t>LocaleLowerCaseTest_HT_OL#Test1#20171103T035934</t>
-  </si>
-  <si>
     <t>Test`2.c3716d035de581085f946fa8a21e9df5bcdf654f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>SunnyTesting.712de0b14af0fbf8dfca5a723b1259075694d133.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -374,7 +326,7 @@
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,16 +396,16 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -467,15 +419,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -495,10 +447,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -507,21 +459,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -530,23 +482,23 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="test\LocaleLowerCaseTest.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="test\Test11092017.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="test\Test`1.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="test\Test`2.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="test\SunnyTesting.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="test\Task1253037Test.md" r:id="rId7"/>
+    <hyperlink ref="B3" display="test\SunnyTesting.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="test\Task1253037Test.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="test\Test11092017.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="test\Test`1.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="test\Test`2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -571,72 +523,72 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="23.5855922698975" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -650,49 +602,49 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -706,46 +658,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -753,7 +705,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -762,46 +714,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -809,7 +761,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -818,46 +770,46 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -865,55 +817,55 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -921,55 +873,55 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -978,13 +930,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="LocaleLowerCaseTest.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="Test11092017.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="Test`1.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="Test`1.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="Test`2.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="SunnyTesting.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="Task1253037Test.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="SunnyTesting.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="Task1253037Test.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="Test11092017.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="Test`1.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="Test`2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1003,131 +953,131 @@
   <cols>
     <col min="1" max="1" width="23.5855922698975" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="23.5855922698975" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1135,7 +1085,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1144,31 +1094,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1177,21 +1127,21 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1200,46 +1150,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1247,7 +1197,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1256,46 +1206,46 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1312,22 +1262,22 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>10</v>
@@ -1336,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1345,13 +1295,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1365,49 +1315,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1415,14 +1365,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="Task1253037Test.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="Task1253037Test.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="LocaleLowerCaseTest.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="LocaleLowerCaseTest.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="Test11092017.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="Test`1.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="Test`2.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="SunnyTesting.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="LocaleLowerCaseTest.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="SunnyTesting.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="Task1253037Test.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="Test11092017.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="Test`1.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="Test`2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
